--- a/Inference_time_results.xlsx
+++ b/Inference_time_results.xlsx
@@ -1,36 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhasud\Documents\GitHub\Optimized-One-vs-One-Algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A861B03-B51D-4813-A613-45254D31764F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E02B10AA-4E4D-42F6-9680-28BC2ED594C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20370" yWindow="-4710" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet2!$A$1:$A$29</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Sheet2!$B$1:$B$29</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet2!$C$1:$C$29</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Sheet2!$D$1:$D$29</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">Sheet2!$E$1:$E$29</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">Sheet2!$A$1:$A$29</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">Sheet2!$B$1:$B$29</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">Sheet2!$C$1:$C$29</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet2!$D$1:$D$29</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet2!$E$1:$E$29</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -57,16 +54,16 @@
     <t>&lt; 1</t>
   </si>
   <si>
-    <t>ESP32  Infer time</t>
-  </si>
-  <si>
-    <t>Adafruit Metro ATSAMD21G18 Infer time</t>
-  </si>
-  <si>
-    <t>nRF52840 Adafruit Feather Infer time</t>
-  </si>
-  <si>
-    <t>STM32f103c8 Blue Pill Infer time</t>
+    <t>ESP32  Infer time (ms)</t>
+  </si>
+  <si>
+    <t>Adafruit Metro ATSAMD21G18 Infer time (ms)</t>
+  </si>
+  <si>
+    <t>STM32f103c8 Blue Pill Infer time (ms)</t>
+  </si>
+  <si>
+    <t>nRF52840 Adafruit Feather Infer time (ms)</t>
   </si>
 </sst>
 </file>
@@ -412,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F665E9A-4628-4C41-BB04-5B4AB8D92FFC}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -746,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
